--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irvin\Desktop\PANGEA\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23128A36-AA94-449B-8FC8-F22576C2BCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>Columna</t>
   </si>
@@ -110,9 +116,6 @@
     <t xml:space="preserve">El incremento en el que se incluye el Caso de Uso. Esta asignación puede cambiar en cada iteración donde se haga la revisión del producto, según las prioridades indicadas por el dueño del producto. </t>
   </si>
   <si>
-    <t>&lt; Nombre del Proyecto&gt;</t>
-  </si>
-  <si>
     <t>Vacío</t>
   </si>
   <si>
@@ -135,13 +138,143 @@
   </si>
   <si>
     <t>Alta</t>
+  </si>
+  <si>
+    <t>PANGEA</t>
+  </si>
+  <si>
+    <t>CU-01</t>
+  </si>
+  <si>
+    <t>CU-02</t>
+  </si>
+  <si>
+    <t>CU-03</t>
+  </si>
+  <si>
+    <t>CU-04</t>
+  </si>
+  <si>
+    <t>CU-05</t>
+  </si>
+  <si>
+    <t>CU-06</t>
+  </si>
+  <si>
+    <t>Crear nuevo evento</t>
+  </si>
+  <si>
+    <t>Mostrar eventos</t>
+  </si>
+  <si>
+    <t>El líder de evento deberá poder crear un evento para gestionar el mismo de manera sencilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider del evento deberá poder consultar sus eventos en los que se encuentra registrado..
+</t>
+  </si>
+  <si>
+    <t>Modificar evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar programa de evento </t>
+  </si>
+  <si>
+    <t>Crear comité</t>
+  </si>
+  <si>
+    <t>Gestionar miembros de comité</t>
+  </si>
+  <si>
+    <t>Modificar comité</t>
+  </si>
+  <si>
+    <t>CU-07</t>
+  </si>
+  <si>
+    <t>CU-08</t>
+  </si>
+  <si>
+    <t>CU-09</t>
+  </si>
+  <si>
+    <t>CU-10</t>
+  </si>
+  <si>
+    <t>CU-11</t>
+  </si>
+  <si>
+    <t>CU-12</t>
+  </si>
+  <si>
+    <t>CU-13</t>
+  </si>
+  <si>
+    <t>CU-14</t>
+  </si>
+  <si>
+    <t>CU-15</t>
+  </si>
+  <si>
+    <t>CU-16</t>
+  </si>
+  <si>
+    <t>CU-18</t>
+  </si>
+  <si>
+    <t>CU-19</t>
+  </si>
+  <si>
+    <t>CU-20</t>
+  </si>
+  <si>
+    <t>Crear actividad</t>
+  </si>
+  <si>
+    <t>Cancelar actividad</t>
+  </si>
+  <si>
+    <t>Modifcar actividad</t>
+  </si>
+  <si>
+    <t>Mostrar comité</t>
+  </si>
+  <si>
+    <t>Asignar actividad a comité</t>
+  </si>
+  <si>
+    <t>Crear tarea</t>
+  </si>
+  <si>
+    <t>Eliminar tarea</t>
+  </si>
+  <si>
+    <t>Modificar tarea</t>
+  </si>
+  <si>
+    <t>Asignar tarea a actividad</t>
+  </si>
+  <si>
+    <t>CU-17</t>
+  </si>
+  <si>
+    <t>Registrar asistente</t>
+  </si>
+  <si>
+    <t>Registrar asistente a actividad</t>
+  </si>
+  <si>
+    <t>Consultar asistentes</t>
+  </si>
+  <si>
+    <t>Validar asistente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +328,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -275,7 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -296,6 +437,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1585,6 +1738,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1872,42 +2033,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="39.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1933,327 +2094,487 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="42">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="42">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="42">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="42">
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="42">
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" ht="42">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" ht="42">
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="42">
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" ht="42">
+    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="42">
+    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" ht="42">
+    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" s="9" customFormat="1" ht="42">
-      <c r="B16" s="10" t="s">
-        <v>7</v>
+    <row r="16" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="42">
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="42">
+    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="42">
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="42">
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="42">
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="42">
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="D22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="2:9" ht="42">
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="42">
+    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="42">
+    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2262,14 +2583,14 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="42">
+    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
@@ -2278,14 +2599,14 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="42">
+    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
@@ -2294,14 +2615,14 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" s="9" customFormat="1" ht="42">
+    <row r="28" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2631,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2356,7 +2677,7 @@
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I7">
+  <conditionalFormatting sqref="B7:I7 F8:H24">
     <cfRule type="expression" dxfId="109" priority="106">
       <formula>$E$7="Planificado"</formula>
     </cfRule>
@@ -2370,12 +2691,12 @@
       <formula>$E$7="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F7:F24">
     <cfRule type="expression" dxfId="105" priority="110">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I8">
+  <conditionalFormatting sqref="B8:E8 I8">
     <cfRule type="expression" dxfId="104" priority="101">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2389,12 +2710,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="100" priority="105">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:I9">
+  <conditionalFormatting sqref="B9:E9 I9">
     <cfRule type="expression" dxfId="99" priority="96">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2408,12 +2724,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="95" priority="100">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
+  <conditionalFormatting sqref="B10:E10 I10">
     <cfRule type="expression" dxfId="94" priority="91">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2427,12 +2738,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="90" priority="95">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
+  <conditionalFormatting sqref="B11:E11 I11">
     <cfRule type="expression" dxfId="89" priority="86">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2446,12 +2752,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="85" priority="90">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
+  <conditionalFormatting sqref="B12:E12 I12">
     <cfRule type="expression" dxfId="84" priority="81">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2465,12 +2766,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="80" priority="85">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
+  <conditionalFormatting sqref="B13:E13 I13">
     <cfRule type="expression" dxfId="79" priority="76">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2484,12 +2780,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="75" priority="80">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
+  <conditionalFormatting sqref="B14:E14 I14">
     <cfRule type="expression" dxfId="74" priority="71">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2503,12 +2794,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="70" priority="75">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I15">
+  <conditionalFormatting sqref="B15:E15 I15">
     <cfRule type="expression" dxfId="69" priority="66">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2522,12 +2808,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="65" priority="70">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I16">
+  <conditionalFormatting sqref="B16:E16 I16">
     <cfRule type="expression" dxfId="64" priority="61">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2541,12 +2822,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="60" priority="65">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:I17">
+  <conditionalFormatting sqref="B17:E17 I17">
     <cfRule type="expression" dxfId="59" priority="56">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2560,12 +2836,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="55" priority="60">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:I18">
+  <conditionalFormatting sqref="B18:E18 I18">
     <cfRule type="expression" dxfId="54" priority="51">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2579,12 +2850,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="50" priority="55">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:I19">
+  <conditionalFormatting sqref="B19:E19 I19">
     <cfRule type="expression" dxfId="49" priority="46">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2598,12 +2864,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="45" priority="50">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:I20">
+  <conditionalFormatting sqref="B20:E20 I20">
     <cfRule type="expression" dxfId="44" priority="41">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2617,12 +2878,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="40" priority="45">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:I21">
+  <conditionalFormatting sqref="B21:E21 I21">
     <cfRule type="expression" dxfId="39" priority="36">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2636,12 +2892,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="35" priority="40">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:I22">
+  <conditionalFormatting sqref="B22:E22 I22">
     <cfRule type="expression" dxfId="34" priority="31">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2655,12 +2906,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="30" priority="35">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:I23">
+  <conditionalFormatting sqref="B23:E23 I23">
     <cfRule type="expression" dxfId="29" priority="26">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2674,12 +2920,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:I24">
+  <conditionalFormatting sqref="B24:E24 I24">
     <cfRule type="expression" dxfId="24" priority="21">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2691,11 +2932,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="24">
       <formula>$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:I25">
@@ -2775,21 +3011,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Instructivo!$E$8:$I$8</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Instructivo!$E$11:$G$11</xm:f>
           </x14:formula1>
@@ -2805,33 +3042,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="42">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2847,7 +3084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="70">
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2855,7 +3092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="42">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +3100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="168">
+    <row r="8" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2871,22 +3108,22 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="24" customHeight="1">
+    </row>
+    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2894,7 +3131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="28">
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +3139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="28">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2910,16 +3147,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="28">
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2929,6 +3166,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irvin\Desktop\PANGEA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanGutru\Desktop\SextoSemestre\2.-DesarrolloDeSoftware\PANGEA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23128A36-AA94-449B-8FC8-F22576C2BCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4EA8F0-A086-4C20-ADF2-97134309E362}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
   <si>
     <t>Columna</t>
   </si>
@@ -268,6 +274,201 @@
   </si>
   <si>
     <t>Validar asistente</t>
+  </si>
+  <si>
+    <t>CU-21</t>
+  </si>
+  <si>
+    <t>CU-22</t>
+  </si>
+  <si>
+    <t>CU-23</t>
+  </si>
+  <si>
+    <t>CU-24</t>
+  </si>
+  <si>
+    <t>CU-25</t>
+  </si>
+  <si>
+    <t>CU-26</t>
+  </si>
+  <si>
+    <t>CU-27</t>
+  </si>
+  <si>
+    <t>CU-28</t>
+  </si>
+  <si>
+    <t>CU-29</t>
+  </si>
+  <si>
+    <t>CU-30</t>
+  </si>
+  <si>
+    <t>CU-31</t>
+  </si>
+  <si>
+    <t>CU-32</t>
+  </si>
+  <si>
+    <t>CU-33</t>
+  </si>
+  <si>
+    <t>CU-34</t>
+  </si>
+  <si>
+    <t>CU-35</t>
+  </si>
+  <si>
+    <t>CU-37</t>
+  </si>
+  <si>
+    <t>CU-38</t>
+  </si>
+  <si>
+    <t>CU-39</t>
+  </si>
+  <si>
+    <t>CU-40</t>
+  </si>
+  <si>
+    <t>CU-41</t>
+  </si>
+  <si>
+    <t>CU-42</t>
+  </si>
+  <si>
+    <t>CU-43</t>
+  </si>
+  <si>
+    <t>CU-44</t>
+  </si>
+  <si>
+    <t>Crear presupuesto</t>
+  </si>
+  <si>
+    <t>Regsitrar ingreso</t>
+  </si>
+  <si>
+    <t>Registrar gasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar presupuesto </t>
+  </si>
+  <si>
+    <t>Registrar material</t>
+  </si>
+  <si>
+    <t>asignar material a actividad</t>
+  </si>
+  <si>
+    <t>Modificar materiales</t>
+  </si>
+  <si>
+    <t>Eliminar materiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Registrar artículos</t>
+  </si>
+  <si>
+    <t>Mdificar artículos</t>
+  </si>
+  <si>
+    <t>Asignar artículo a revisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar articulos </t>
+  </si>
+  <si>
+    <t>Crear revisión</t>
+  </si>
+  <si>
+    <t>Modificar revisión</t>
+  </si>
+  <si>
+    <t>Enviar revisión al autor</t>
+  </si>
+  <si>
+    <t>Generar constancias</t>
+  </si>
+  <si>
+    <t>Crear cuenta</t>
+  </si>
+  <si>
+    <t>Modificar cuenta</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Agregar personal al evento</t>
+  </si>
+  <si>
+    <t>Eliminar personal del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider de evento y/o lider de comité deberá poder consultar los comités del evento (para el caso del lider del evento), el lider de comité verá solo accederá al comité  encargado para consultar la información del mismo en  tiempo de respuesta máximo de 3 segundos
+</t>
+  </si>
+  <si>
+    <t>El lider del evento deberá poder cancelar alguna actividad o actividades del evento en caso de ser requerido.</t>
+  </si>
+  <si>
+    <t>El lider del evento y/o miembro de comité deberá poder modificar la información de las actividades  del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miembro de comité deberá poder registrar la información personal y de contacto de los asistentes en tiempo máximo de 4 minutos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miembro de comité deberá poder asignar a uno o más asistentes a alguna actividad con la condición de que en esta haya cupo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miembro de comité deberá poder consultar los asistentes con sus respectivos datos y actividades asignadas con un tiempo de respuesta máximos de 3 segundos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miebro de comité deberá poder validar la inscripción del asistente comprobando el pago de la actividad para poder generar su constancia, la cosntacia solo se generará si se valida su asistencia a la actividad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider del evento deberá poder crear un presupuesto inicial para el evento, el cual solo podrá ser modificado agregando ingresos o gastos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider del evento y/o lider del comité deberá poder registrar ingresos, ya sea por patrocionios o por inscripciones al evento y/o actividades, para analizar el presupuesto del evento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider del evento y/o lider del comité deberá poder registrar los gastos, ya sea por compra de materiales o propaganda del evento, entre otros, para analizar el presupuesto del evento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lider del evento y/o lider del comité deberá poder consultar el presupuesto general del  evento, en un tiempo de respuesta máximo de 3 segundos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miembro de comité deberá poder registrar los materiales para poder ser asignados a las difentes tareas, en un tiempo máximo de 5 minutos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miembro de comité deberá poder asignar material a actividad en caso de ser necesario su uso, con la única condición de que esté disponible.
+</t>
+  </si>
+  <si>
+    <t>El miebro de comité deberá poder modificar el/los materiales para actualizar el catálogo de los mismos y ver su disponibilidad o caracteristicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El miebro de comité deberá poder eliminar el/los material  que ya no se encuentra en condiciones adecuadas para su uso.
+</t>
   </si>
 </sst>
 </file>
@@ -326,12 +527,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +616,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -443,12 +643,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,7 +681,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="103">
     <dxf>
       <font>
         <color auto="1"/>
@@ -698,17 +892,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -750,17 +933,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -802,17 +974,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -854,17 +1015,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -906,17 +1056,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -958,17 +1097,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1010,17 +1138,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1062,17 +1179,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1114,17 +1220,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1166,17 +1261,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1218,17 +1302,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1270,17 +1343,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1322,17 +1384,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1374,17 +1425,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1426,17 +1466,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1478,17 +1507,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1525,17 +1543,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,12 +2269,12 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>65</v>
@@ -2310,12 +2317,12 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>64</v>
@@ -2334,12 +2341,12 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>63</v>
@@ -2359,16 +2366,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="6">
@@ -2483,7 +2490,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>72</v>
@@ -2507,7 +2514,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>73</v>
@@ -2531,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>74</v>
@@ -2550,12 +2557,12 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>75</v>
@@ -2576,365 +2583,890 @@
     </row>
     <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="E25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="E26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="6">
+        <v>8</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="6">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6">
+        <v>8</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6">
+        <v>8</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="6">
+        <v>8</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="6">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="6">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="6">
+        <v>8</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6">
+        <v>8</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="6">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="6">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>3</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="6">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="6">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="6">
+        <v>6</v>
+      </c>
+      <c r="G45" s="6">
+        <v>3</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="6">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="6">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6">
+        <v>3</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="6">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="C50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B5:I5">
-    <cfRule type="expression" dxfId="119" priority="209">
+    <cfRule type="expression" dxfId="102" priority="209">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="210">
+    <cfRule type="expression" dxfId="101" priority="210">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="211">
+    <cfRule type="expression" dxfId="100" priority="211">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="212">
+    <cfRule type="expression" dxfId="99" priority="212">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="115" priority="217">
+    <cfRule type="expression" dxfId="98" priority="217">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:I6">
-    <cfRule type="expression" dxfId="114" priority="111">
+    <cfRule type="expression" dxfId="97" priority="111">
       <formula>$E$6="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="112">
+    <cfRule type="expression" dxfId="96" priority="112">
       <formula>$E$6="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="95" priority="113">
       <formula>$E$6="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="114">
+    <cfRule type="expression" dxfId="94" priority="114">
       <formula>$E$6="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="110" priority="115">
+    <cfRule type="expression" dxfId="93" priority="115">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:I7 F8:H24">
-    <cfRule type="expression" dxfId="109" priority="106">
+    <cfRule type="expression" dxfId="92" priority="106">
       <formula>$E$7="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="107">
+    <cfRule type="expression" dxfId="91" priority="107">
       <formula>$E$7="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="108">
+    <cfRule type="expression" dxfId="90" priority="108">
       <formula>$E$7="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="109">
+    <cfRule type="expression" dxfId="89" priority="109">
       <formula>$E$7="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F24">
-    <cfRule type="expression" dxfId="105" priority="110">
+    <cfRule type="expression" dxfId="88" priority="110">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8 I8">
-    <cfRule type="expression" dxfId="104" priority="101">
+    <cfRule type="expression" dxfId="87" priority="101">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="86" priority="102">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="85" priority="103">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="104">
+    <cfRule type="expression" dxfId="84" priority="104">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E9 I9">
-    <cfRule type="expression" dxfId="99" priority="96">
+    <cfRule type="expression" dxfId="83" priority="96">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="97">
+    <cfRule type="expression" dxfId="82" priority="97">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="81" priority="98">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99">
+    <cfRule type="expression" dxfId="80" priority="99">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E10 I10">
-    <cfRule type="expression" dxfId="94" priority="91">
+    <cfRule type="expression" dxfId="79" priority="91">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="92">
+    <cfRule type="expression" dxfId="78" priority="92">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="77" priority="93">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="94">
+    <cfRule type="expression" dxfId="76" priority="94">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E11 I11">
-    <cfRule type="expression" dxfId="89" priority="86">
+    <cfRule type="expression" dxfId="75" priority="86">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="87">
+    <cfRule type="expression" dxfId="74" priority="87">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="73" priority="88">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="89">
+    <cfRule type="expression" dxfId="72" priority="89">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E12 I12">
-    <cfRule type="expression" dxfId="84" priority="81">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="68" priority="84">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13 I13">
-    <cfRule type="expression" dxfId="79" priority="76">
+    <cfRule type="expression" dxfId="67" priority="76">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77">
+    <cfRule type="expression" dxfId="66" priority="77">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="65" priority="78">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="79">
+    <cfRule type="expression" dxfId="64" priority="79">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E14 I14">
-    <cfRule type="expression" dxfId="74" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="72">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="61" priority="73">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="74">
+    <cfRule type="expression" dxfId="60" priority="74">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:E15 I15">
-    <cfRule type="expression" dxfId="69" priority="66">
+    <cfRule type="expression" dxfId="59" priority="66">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="67">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="56" priority="69">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16 I16">
-    <cfRule type="expression" dxfId="64" priority="61">
+    <cfRule type="expression" dxfId="55" priority="61">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="62">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="64">
+    <cfRule type="expression" dxfId="52" priority="64">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E17 I17">
-    <cfRule type="expression" dxfId="59" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="57">
+    <cfRule type="expression" dxfId="50" priority="57">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="59">
+    <cfRule type="expression" dxfId="48" priority="59">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18 I18">
-    <cfRule type="expression" dxfId="54" priority="51">
+    <cfRule type="expression" dxfId="47" priority="51">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="46" priority="52">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="45" priority="53">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="44" priority="54">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19 I19">
-    <cfRule type="expression" dxfId="49" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E20 I20">
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:E21 I21">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="33" priority="38">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="32" priority="39">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22 I22">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:E23 I23">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24 I24">
-    <cfRule type="expression" dxfId="24" priority="21">
+  <conditionalFormatting sqref="B24:E24 I24 E25:E39">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$E$5="En Proceso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$E$5="Descartado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:I25">
+  <conditionalFormatting sqref="B25:D25 F25:I25">
     <cfRule type="expression" dxfId="19" priority="16">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2953,7 +3485,7 @@
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:I26">
+  <conditionalFormatting sqref="B26:D26 F26:I26 G27:H39 C27:C28">
     <cfRule type="expression" dxfId="14" priority="11">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2972,7 +3504,7 @@
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:I27">
+  <conditionalFormatting sqref="B29:D39 I27:I39 F27:F39 B40:I49 B27:B28 D27:D28">
     <cfRule type="expression" dxfId="9" priority="6">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2986,12 +3518,12 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F27:F49">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:I28">
+  <conditionalFormatting sqref="B50:I50">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -3005,13 +3537,13 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F50">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G50" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3024,13 +3556,13 @@
           <x14:formula1>
             <xm:f>Instructivo!$E$8:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E28</xm:sqref>
+          <xm:sqref>E5:E50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Instructivo!$E$11:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H28</xm:sqref>
+          <xm:sqref>H5:H50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanGutru\Desktop\SextoSemestre\2.-DesarrolloDeSoftware\PANGEA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanglezh/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4EA8F0-A086-4C20-ADF2-97134309E362}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C3994B-72E8-9242-A37F-B3341025DC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
   <si>
     <t>Columna</t>
   </si>
@@ -173,13 +173,6 @@
     <t>Mostrar eventos</t>
   </si>
   <si>
-    <t>El líder de evento deberá poder crear un evento para gestionar el mismo de manera sencilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El lider del evento deberá poder consultar sus eventos en los que se encuentra registrado..
-</t>
-  </si>
-  <si>
     <t>Modificar evento</t>
   </si>
   <si>
@@ -468,6 +461,60 @@
   </si>
   <si>
     <t xml:space="preserve">El miebro de comité deberá poder eliminar el/los material  que ya no se encuentra en condiciones adecuadas para su uso.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Evento deberá poder consultar sus eventos en los que se encuentra registrado..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Evento deberá poder modificar el evento para actualizar o cambiar su informacón de manera rapida e intuitiva
+</t>
+  </si>
+  <si>
+    <t>El líder Evento  deberá poder crear un evento para gestionar el mismo de manera de manera eficaz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Líder Evento deberá poder consultar el programa del evento para poder generarlo en PDF y usarlo fuera del sistema sin complicaciones de formatos. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Líder Revisor  deberá poder registrar los articulos para que se puedan asignar y revisar de manera segura.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Líder Revisor  deberá poder modificar los articulos para que se suba una nueva versión de ellos salvaguardando la información.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Líder Revisor deberá poder asignar un articulo a un revisor para que este pueda evaluarlo y dar retroalimentación de manera intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Líder Revisor deberá poder consultar los articulos que están registrados en el sistema para ver la información de ellos, en un tiempo de repsuesa máximo de 3 segundos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Miembro Comité/Revisor deberá poder crear una revisión del articulos que se le asignó para ofrecer retroalimentación y una evaluación, con la disponibilidad de realizarla en el tiempo que deseé.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Miembro Comité/Revisor deberá poder modificar la revisión que ha dejado pendiente para finalizarla o solo guardarla, estará disponible en todos los casos que aun no sea finalizada. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Líder Revisor deberá poder enviar la revisión al autor para informarle sobre sus observaciones y calificación, todo en un lapso minimo de máximo de 3 minutos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Miembro Comité deberá poder generar las consatancias de los asistentes y ponentes para poder entregarlas por correo electronico de manera intuitiva y eficiente.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Miembro Comité deberá poder crear una actividad para que su información se encuentre registrada en el sistema y se realicé un seguimiento de ella, en un tiempo máximo de 3 minutos. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Líder Comité/Miembro Comité deberá poder asignar una actividad a su comité especifico para poder llevar el segumiento de los responsables de acividades de manera intuitiva.
 </t>
   </si>
 </sst>
@@ -2043,31 +2090,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="2"/>
+    <col min="10" max="10" width="39.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2101,18 +2148,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <v>10</v>
@@ -2125,12 +2172,12 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>41</v>
@@ -2149,15 +2196,15 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -2173,15 +2220,15 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
@@ -2197,7 +2244,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2205,7 +2252,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -2221,7 +2268,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>26</v>
@@ -2245,15 +2292,15 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -2269,15 +2316,15 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
@@ -2293,15 +2340,15 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>26</v>
@@ -2317,15 +2364,15 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>26</v>
@@ -2341,15 +2388,15 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>26</v>
@@ -2365,15 +2412,15 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>26</v>
@@ -2389,15 +2436,15 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>26</v>
@@ -2413,15 +2460,15 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
@@ -2437,15 +2484,15 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>26</v>
@@ -2461,15 +2508,15 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>26</v>
@@ -2485,15 +2532,15 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -2509,15 +2556,15 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>26</v>
@@ -2533,15 +2580,15 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>26</v>
@@ -2557,15 +2604,15 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>26</v>
@@ -2581,15 +2628,15 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>26</v>
@@ -2605,15 +2652,15 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>26</v>
@@ -2629,15 +2676,15 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>26</v>
@@ -2653,15 +2700,15 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>26</v>
@@ -2677,15 +2724,15 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>26</v>
@@ -2701,15 +2748,15 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>26</v>
@@ -2725,15 +2772,15 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>26</v>
@@ -2749,15 +2796,15 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>26</v>
@@ -2773,15 +2820,15 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>26</v>
@@ -2797,15 +2844,15 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>26</v>
@@ -2821,15 +2868,15 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>26</v>
@@ -2845,15 +2892,15 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>26</v>
@@ -2869,15 +2916,15 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>26</v>
@@ -2893,15 +2940,15 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>26</v>
@@ -2917,15 +2964,15 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>26</v>
@@ -2941,7 +2988,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2951,15 +2998,15 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>26</v>
@@ -2975,15 +3022,15 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>26</v>
@@ -2999,15 +3046,15 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>26</v>
@@ -3023,15 +3070,15 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>26</v>
@@ -3047,15 +3094,15 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>26</v>
@@ -3071,15 +3118,15 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>26</v>
@@ -3095,15 +3142,15 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>26</v>
@@ -3119,15 +3166,15 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>26</v>
@@ -3143,7 +3190,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3153,7 +3200,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
@@ -3581,26 +3628,26 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="5"/>
+    <col min="4" max="4" width="2.83203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3624,7 +3671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3632,7 +3679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="192" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -3655,7 +3702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -3663,7 +3710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3671,7 +3718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3688,7 +3735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>

--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanglezh/Library/Mobile Documents/com~apple~CloudDocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vik-t\Documents\SoftwareEngineering\6toSemestre\DesarrolloDeSoftware\PANGEA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C3994B-72E8-9242-A37F-B3341025DC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395350F9-492D-42E1-A047-2F81C6481CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>Columna</t>
   </si>
@@ -515,6 +517,34 @@
   </si>
   <si>
     <t xml:space="preserve">El Líder Comité/Miembro Comité deberá poder asignar una actividad a su comité especifico para poder llevar el segumiento de los responsables de acividades de manera intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Usuario deberá poder crear una cuenta en el sistema para poder acceder a las funciones de la misma de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario deberá poder modificar la información de su cuenta para que tenga control sobre los datos que están ahí de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario deberá poder iniciar sesión en el sistema para que exista seguridad y privacidad en sus datos de manera sencilla, intuitiva y rápida.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario  deberá poder cerrar sesión en el sistema para tener un control de la seguridad y privacidad de su información de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario deberá poder recuperar su contraseña para tener control de su cuenta y poder recuperarla en caso de olvidar su contraseña esto de manera segura e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El líder del evento deberá poder agregar personal al evento para que puedan participar en las activiades del mismo de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El líder del evento deberá poder eliminar personal del evento para poder tener control de quienes ya no participan en el evento  esto de manera sencilla e intuitiva.
 </t>
   </si>
 </sst>
@@ -2090,31 +2120,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="39.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2122,7 +2152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -2172,7 +2202,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2196,7 +2226,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2250,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2274,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2298,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
@@ -2292,7 +2322,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
@@ -2316,7 +2346,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
@@ -2340,7 +2370,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
@@ -2364,7 +2394,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2418,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
@@ -2412,7 +2442,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +2466,7 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
@@ -2460,7 +2490,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2514,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
@@ -2508,7 +2538,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>56</v>
       </c>
@@ -2532,7 +2562,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -2556,7 +2586,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
@@ -2580,7 +2610,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2604,7 +2634,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
@@ -2628,7 +2658,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>74</v>
       </c>
@@ -2652,7 +2682,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>75</v>
       </c>
@@ -2676,7 +2706,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
@@ -2700,7 +2730,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>77</v>
       </c>
@@ -2724,7 +2754,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>78</v>
       </c>
@@ -2748,7 +2778,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>79</v>
       </c>
@@ -2772,7 +2802,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
@@ -2796,7 +2826,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>81</v>
       </c>
@@ -2820,7 +2850,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>82</v>
       </c>
@@ -2844,7 +2874,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>83</v>
       </c>
@@ -2868,7 +2898,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>84</v>
       </c>
@@ -2892,7 +2922,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>85</v>
       </c>
@@ -2916,7 +2946,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>86</v>
       </c>
@@ -2940,7 +2970,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>87</v>
       </c>
@@ -2964,7 +2994,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>88</v>
       </c>
@@ -2988,7 +3018,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2998,7 +3028,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
@@ -3022,12 +3052,12 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>113</v>
@@ -3046,12 +3076,12 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>114</v>
@@ -3070,12 +3100,12 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>115</v>
@@ -3094,12 +3124,12 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>116</v>
@@ -3118,12 +3148,12 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>117</v>
@@ -3142,12 +3172,12 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>118</v>
@@ -3162,16 +3192,16 @@
         <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>119</v>
@@ -3186,11 +3216,11 @@
         <v>3</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3200,7 +3230,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
@@ -3628,26 +3658,26 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3679,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -3702,7 +3732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -3710,7 +3740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3718,7 +3748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>

--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vik-t\Documents\SoftwareEngineering\6toSemestre\DesarrolloDeSoftware\PANGEA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395350F9-492D-42E1-A047-2F81C6481CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1620C7F5-8521-404F-AF57-DA88089370B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
   <si>
     <t>Columna</t>
   </si>
@@ -545,6 +545,14 @@
   </si>
   <si>
     <t xml:space="preserve">El líder del evento deberá poder eliminar personal del evento para poder tener control de quienes ya no participan en el evento  esto de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El líder de evento deberá poder crear un comité para poder llevar el control de los organizadores de manera fácil e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El líder de evento y comité deberá poder modificar los miembros del comité con el fin de agregar o elimianar miembros de manera sencilla e intuitiva.
 </t>
   </si>
 </sst>
@@ -2120,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2287,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>44</v>
@@ -2288,7 +2296,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -2303,7 +2311,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>45</v>
@@ -2312,7 +2320,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -2336,7 +2344,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -2360,7 +2368,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -2480,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
@@ -2528,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
@@ -3654,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Plantilla_de_Casos_de_Uso.xlsx
+++ b/Documents/Plantilla_de_Casos_de_Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vik-t\Documents\SoftwareEngineering\6toSemestre\DesarrolloDeSoftware\PANGEA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1620C7F5-8521-404F-AF57-DA88089370B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FC450-1A06-4484-BD85-4FF284C223C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="159">
   <si>
     <t>Columna</t>
   </si>
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t xml:space="preserve">El líder de evento y comité deberá poder modificar los miembros del comité con el fin de agregar o elimianar miembros de manera sencilla e intuitiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El líder evento y líder comité deberá poder modificar la información del comité para actulizar los datos.
 </t>
   </si>
 </sst>
@@ -2128,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2290,7 @@
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2335,7 +2339,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>46</v>
